--- a/ids.xlsx
+++ b/ids.xlsx
@@ -625,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +637,14 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="204"/>
@@ -662,12 +670,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -952,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1462,7 +1473,7 @@
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1963,5 +1974,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ids.xlsx
+++ b/ids.xlsx
@@ -964,7 +964,7 @@
   <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
     </row>

--- a/ids.xlsx
+++ b/ids.xlsx
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
     </row>

--- a/ids.xlsx
+++ b/ids.xlsx
@@ -964,7 +964,7 @@
   <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1513,7 +1513,7 @@
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
     </row>

--- a/ids.xlsx
+++ b/ids.xlsx
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
     </row>

--- a/ids.xlsx
+++ b/ids.xlsx
@@ -964,7 +964,7 @@
   <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
     </row>
